--- a/outcome/simulate data/B_AIDS.xlsx
+++ b/outcome/simulate data/B_AIDS.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>7725.5264745661</v>
+        <v>7621.59637602481</v>
       </c>
       <c r="C2" t="n">
-        <v>6069.64482175861</v>
+        <v>6317.58402968053</v>
       </c>
       <c r="D2" t="n">
-        <v>5193.07402441114</v>
+        <v>5627.28159155162</v>
       </c>
       <c r="E2" t="n">
-        <v>9381.40812737359</v>
+        <v>8925.60872236909</v>
       </c>
       <c r="F2" t="n">
-        <v>10257.9789247211</v>
+        <v>9615.911160498</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>6843.35629222858</v>
+        <v>7645.51507079858</v>
       </c>
       <c r="C3" t="n">
-        <v>5182.98173426544</v>
+        <v>6336.15967170872</v>
       </c>
       <c r="D3" t="n">
-        <v>4304.03253659691</v>
+        <v>5643.02879230955</v>
       </c>
       <c r="E3" t="n">
-        <v>8503.73085019172</v>
+        <v>8954.87046988845</v>
       </c>
       <c r="F3" t="n">
-        <v>9382.68004786025</v>
+        <v>9648.00134928762</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>7217.0620258565</v>
+        <v>7475.84065561033</v>
       </c>
       <c r="C4" t="n">
-        <v>5554.69326985763</v>
+        <v>6161.15772560722</v>
       </c>
       <c r="D4" t="n">
-        <v>4674.68840751687</v>
+        <v>5465.20662169949</v>
       </c>
       <c r="E4" t="n">
-        <v>8879.43078185537</v>
+        <v>8790.52358561344</v>
       </c>
       <c r="F4" t="n">
-        <v>9759.43564419613</v>
+        <v>9486.47468952117</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>7254.56524403773</v>
+        <v>7659.68241021135</v>
       </c>
       <c r="C5" t="n">
-        <v>5591.31039008856</v>
+        <v>6341.04798290001</v>
       </c>
       <c r="D5" t="n">
-        <v>4710.83645582742</v>
+        <v>5643.00508267319</v>
       </c>
       <c r="E5" t="n">
-        <v>8917.82009798689</v>
+        <v>8978.31683752269</v>
       </c>
       <c r="F5" t="n">
-        <v>9798.29403224804</v>
+        <v>9676.35973774951</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>6546.44674976344</v>
+        <v>7415.7867365653</v>
       </c>
       <c r="C6" t="n">
-        <v>4882.79797914759</v>
+        <v>6094.60557963377</v>
       </c>
       <c r="D6" t="n">
-        <v>4002.11551799927</v>
+        <v>5395.21452218205</v>
       </c>
       <c r="E6" t="n">
-        <v>8210.09552037929</v>
+        <v>8736.96789349684</v>
       </c>
       <c r="F6" t="n">
-        <v>9090.77798152762</v>
+        <v>9436.35895094856</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>8171.21336373828</v>
+        <v>8789.94402020311</v>
       </c>
       <c r="C7" t="n">
-        <v>6507.38943921678</v>
+        <v>7466.79161332469</v>
       </c>
       <c r="D7" t="n">
-        <v>5626.61425719164</v>
+        <v>6766.35703918519</v>
       </c>
       <c r="E7" t="n">
-        <v>9835.03728825978</v>
+        <v>10113.0964270815</v>
       </c>
       <c r="F7" t="n">
-        <v>10715.8124702849</v>
+        <v>10813.531001221</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>8784.15349732549</v>
+        <v>8460.27292724623</v>
       </c>
       <c r="C8" t="n">
-        <v>7120.25168372827</v>
+        <v>7135.55404091044</v>
       </c>
       <c r="D8" t="n">
-        <v>6239.43526971709</v>
+        <v>6434.29022263706</v>
       </c>
       <c r="E8" t="n">
-        <v>10448.0553109227</v>
+        <v>9784.99181358203</v>
       </c>
       <c r="F8" t="n">
-        <v>11328.8717249339</v>
+        <v>10486.2556318554</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>4917.93864510464</v>
+        <v>4935.23868048036</v>
       </c>
       <c r="C9" t="n">
-        <v>3189.72511364208</v>
+        <v>3524.45580387204</v>
       </c>
       <c r="D9" t="n">
-        <v>2274.8641326702</v>
+        <v>2777.63246119172</v>
       </c>
       <c r="E9" t="n">
-        <v>6646.15217656719</v>
+        <v>6346.02155708869</v>
       </c>
       <c r="F9" t="n">
-        <v>7561.01315753908</v>
+        <v>7092.84489976901</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>5560.55280398335</v>
+        <v>4938.87602920181</v>
       </c>
       <c r="C10" t="n">
-        <v>3800.69226552366</v>
+        <v>3490.98649194168</v>
       </c>
       <c r="D10" t="n">
-        <v>2869.07837101469</v>
+        <v>2724.52006966124</v>
       </c>
       <c r="E10" t="n">
-        <v>7320.41334244303</v>
+        <v>6386.76556646195</v>
       </c>
       <c r="F10" t="n">
-        <v>8252.02723695201</v>
+        <v>7153.23198874238</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>7521.69379091548</v>
+        <v>7389.64565882237</v>
       </c>
       <c r="C11" t="n">
-        <v>5758.81058711221</v>
+        <v>5935.19845596144</v>
       </c>
       <c r="D11" t="n">
-        <v>4825.59659022523</v>
+        <v>5165.26061520453</v>
       </c>
       <c r="E11" t="n">
-        <v>9284.57699471876</v>
+        <v>8844.0928616833</v>
       </c>
       <c r="F11" t="n">
-        <v>10217.7909916057</v>
+        <v>9614.03070244021</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>6580.38963597764</v>
+        <v>7335.51455298762</v>
       </c>
       <c r="C12" t="n">
-        <v>4810.22989066049</v>
+        <v>5869.26260395121</v>
       </c>
       <c r="D12" t="n">
-        <v>3873.16392537594</v>
+        <v>5093.07570804595</v>
       </c>
       <c r="E12" t="n">
-        <v>8350.54938129478</v>
+        <v>8801.76650202403</v>
       </c>
       <c r="F12" t="n">
-        <v>9287.61534657933</v>
+        <v>9577.95339792929</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>7426.64945306916</v>
+        <v>7736.75246998573</v>
       </c>
       <c r="C13" t="n">
-        <v>5635.50053162402</v>
+        <v>6256.8365180376</v>
       </c>
       <c r="D13" t="n">
-        <v>4687.32356766212</v>
+        <v>5473.41633592075</v>
       </c>
       <c r="E13" t="n">
-        <v>9217.79837451429</v>
+        <v>9216.66842193386</v>
       </c>
       <c r="F13" t="n">
-        <v>10165.9753384762</v>
+        <v>10000.0886040507</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>8153.07052894004</v>
+        <v>8086.44421080187</v>
       </c>
       <c r="C14" t="n">
-        <v>6352.66584067556</v>
+        <v>6599.9851427753</v>
       </c>
       <c r="D14" t="n">
-        <v>5399.58916972849</v>
+        <v>5813.10124423385</v>
       </c>
       <c r="E14" t="n">
-        <v>9953.47521720451</v>
+        <v>9572.90327882845</v>
       </c>
       <c r="F14" t="n">
-        <v>10906.5518881516</v>
+        <v>10359.7871773699</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>7270.578277521</v>
+        <v>8134.30516666593</v>
       </c>
       <c r="C15" t="n">
-        <v>5466.07258674045</v>
+        <v>6643.60539472946</v>
       </c>
       <c r="D15" t="n">
-        <v>4510.82497619794</v>
+        <v>5854.47660314188</v>
       </c>
       <c r="E15" t="n">
-        <v>9075.08396830155</v>
+        <v>9625.00493860239</v>
       </c>
       <c r="F15" t="n">
-        <v>10030.3315788441</v>
+        <v>10414.13373019</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>7644.64126923575</v>
+        <v>7934.6448585921</v>
       </c>
       <c r="C16" t="n">
-        <v>5838.31475872396</v>
+        <v>6439.76379143913</v>
       </c>
       <c r="D16" t="n">
-        <v>4882.10326443955</v>
+        <v>5648.421555868</v>
       </c>
       <c r="E16" t="n">
-        <v>9450.96777974754</v>
+        <v>9429.52592574506</v>
       </c>
       <c r="F16" t="n">
-        <v>10407.1792740319</v>
+        <v>10220.8681613162</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>7681.56455148371</v>
+        <v>8105.38457001502</v>
       </c>
       <c r="C17" t="n">
-        <v>5874.42886963122</v>
+        <v>6607.39898912399</v>
       </c>
       <c r="D17" t="n">
-        <v>4917.78902591368</v>
+        <v>5814.41332325206</v>
       </c>
       <c r="E17" t="n">
-        <v>9488.7002333362</v>
+        <v>9603.37015090605</v>
       </c>
       <c r="F17" t="n">
-        <v>10445.3400770537</v>
+        <v>10396.355816778</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>6973.31067566529</v>
+        <v>7863.78109459243</v>
       </c>
       <c r="C18" t="n">
-        <v>5165.81525294674</v>
+        <v>6363.78125605563</v>
       </c>
       <c r="D18" t="n">
-        <v>4208.98497391805</v>
+        <v>5569.72930659536</v>
       </c>
       <c r="E18" t="n">
-        <v>8780.80609838383</v>
+        <v>9363.78093312923</v>
       </c>
       <c r="F18" t="n">
-        <v>9737.63637741252</v>
+        <v>10157.8328825895</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>8598.17136608874</v>
+        <v>9218.87532745638</v>
       </c>
       <c r="C19" t="n">
-        <v>6790.51598127339</v>
+        <v>7717.31796057869</v>
       </c>
       <c r="D19" t="n">
-        <v>5833.60102342571</v>
+        <v>6922.44150541939</v>
       </c>
       <c r="E19" t="n">
-        <v>10405.8267509041</v>
+        <v>10720.4326943341</v>
       </c>
       <c r="F19" t="n">
-        <v>11362.7417087518</v>
+        <v>11515.3091494934</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>9211.04778347566</v>
+        <v>8862.1141425033</v>
       </c>
       <c r="C20" t="n">
-        <v>7403.32126435789</v>
+        <v>7359.32185892621</v>
       </c>
       <c r="D20" t="n">
-        <v>6446.36865028516</v>
+        <v>6563.79167835483</v>
       </c>
       <c r="E20" t="n">
-        <v>11018.7743025934</v>
+        <v>10364.9064260804</v>
       </c>
       <c r="F20" t="n">
-        <v>11975.7269166662</v>
+        <v>11160.4366066518</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>5344.97772556478</v>
+        <v>5364.17253703206</v>
       </c>
       <c r="C21" t="n">
-        <v>3477.7524034682</v>
+        <v>3780.31368364311</v>
       </c>
       <c r="D21" t="n">
-        <v>2489.30302567449</v>
+        <v>2941.8694532556</v>
       </c>
       <c r="E21" t="n">
-        <v>7212.20304766137</v>
+        <v>6948.031390421</v>
       </c>
       <c r="F21" t="n">
-        <v>8200.65242545507</v>
+        <v>7786.47562080851</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>5987.35162410511</v>
+        <v>5371.17555675519</v>
       </c>
       <c r="C22" t="n">
-        <v>4090.73004800288</v>
+        <v>3752.30866478757</v>
       </c>
       <c r="D22" t="n">
-        <v>3086.7192333341</v>
+        <v>2895.33229821843</v>
       </c>
       <c r="E22" t="n">
-        <v>7883.97320020734</v>
+        <v>6990.0424487228</v>
       </c>
       <c r="F22" t="n">
-        <v>8887.98401487612</v>
+        <v>7847.01881529194</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>7948.67196053488</v>
+        <v>7818.94366998257</v>
       </c>
       <c r="C23" t="n">
-        <v>6049.23956121202</v>
+        <v>6194.0496694103</v>
       </c>
       <c r="D23" t="n">
-        <v>5043.74078661112</v>
+        <v>5333.88274427298</v>
       </c>
       <c r="E23" t="n">
-        <v>9848.10435985774</v>
+        <v>9443.83767055484</v>
       </c>
       <c r="F23" t="n">
-        <v>10853.6031344586</v>
+        <v>10304.0045956922</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>7007.46570312291</v>
+        <v>7753.68181399919</v>
       </c>
       <c r="C24" t="n">
-        <v>5101.26219379689</v>
+        <v>6117.71125425874</v>
       </c>
       <c r="D24" t="n">
-        <v>4092.17901007815</v>
+        <v>5251.68075288971</v>
       </c>
       <c r="E24" t="n">
-        <v>8913.66921244893</v>
+        <v>9389.65237373963</v>
       </c>
       <c r="F24" t="n">
-        <v>9922.75239616768</v>
+        <v>10255.6828751087</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>7853.66270552655</v>
+        <v>8170.33212002294</v>
       </c>
       <c r="C25" t="n">
-        <v>5927.90449349908</v>
+        <v>6521.42811800945</v>
       </c>
       <c r="D25" t="n">
-        <v>4908.46967546527</v>
+        <v>5648.55106587</v>
       </c>
       <c r="E25" t="n">
-        <v>9779.42091755401</v>
+        <v>9819.23612203644</v>
       </c>
       <c r="F25" t="n">
-        <v>10798.8557355878</v>
+        <v>10692.1131741759</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>8579.9050879292</v>
+        <v>8519.34972209041</v>
       </c>
       <c r="C26" t="n">
-        <v>6645.51394983652</v>
+        <v>6864.28829247689</v>
       </c>
       <c r="D26" t="n">
-        <v>5621.50913679637</v>
+        <v>5988.15169506028</v>
       </c>
       <c r="E26" t="n">
-        <v>10514.2962260219</v>
+        <v>10174.4111517039</v>
       </c>
       <c r="F26" t="n">
-        <v>11538.301039062</v>
+        <v>11050.5477491205</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>7697.51408272168</v>
+        <v>8557.39139446313</v>
       </c>
       <c r="C27" t="n">
-        <v>5759.29603498844</v>
+        <v>6898.34762464511</v>
       </c>
       <c r="D27" t="n">
-        <v>4733.26537835655</v>
+        <v>6020.10290366637</v>
       </c>
       <c r="E27" t="n">
-        <v>9635.73213045492</v>
+        <v>10216.4351642812</v>
       </c>
       <c r="F27" t="n">
-        <v>10661.7627870868</v>
+        <v>11094.6798852599</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>8071.46476614639</v>
+        <v>8370.10002515648</v>
       </c>
       <c r="C28" t="n">
-        <v>6131.54722830789</v>
+        <v>6707.10838590584</v>
       </c>
       <c r="D28" t="n">
-        <v>5104.61691595838</v>
+        <v>5826.77378908936</v>
       </c>
       <c r="E28" t="n">
-        <v>10011.3823039849</v>
+        <v>10033.0916644071</v>
       </c>
       <c r="F28" t="n">
-        <v>11038.3126163344</v>
+        <v>10913.4262612236</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>8108.57035808978</v>
+        <v>8546.25659909533</v>
       </c>
       <c r="C29" t="n">
-        <v>6167.89749574797</v>
+        <v>6880.33259295572</v>
       </c>
       <c r="D29" t="n">
-        <v>5140.5673387592</v>
+        <v>5998.44569487567</v>
       </c>
       <c r="E29" t="n">
-        <v>10049.2432204316</v>
+        <v>10212.1806052349</v>
       </c>
       <c r="F29" t="n">
-        <v>11076.5733774204</v>
+        <v>11094.067503315</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>7400.35904105529</v>
+        <v>8303.73145872985</v>
       </c>
       <c r="C30" t="n">
-        <v>5459.35036283572</v>
+        <v>6635.90890336172</v>
       </c>
       <c r="D30" t="n">
-        <v>4431.84243565955</v>
+        <v>5753.01697402944</v>
       </c>
       <c r="E30" t="n">
-        <v>9341.36771927487</v>
+        <v>9971.55401409799</v>
       </c>
       <c r="F30" t="n">
-        <v>10368.875646451</v>
+        <v>10854.4459434303</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>9025.19015743839</v>
+        <v>9666.68930320671</v>
       </c>
       <c r="C31" t="n">
-        <v>7084.03215278271</v>
+        <v>7997.39753055948</v>
       </c>
       <c r="D31" t="n">
-        <v>6056.44517696623</v>
+        <v>7113.72784458038</v>
       </c>
       <c r="E31" t="n">
-        <v>10966.3481620941</v>
+        <v>11335.9810758539</v>
       </c>
       <c r="F31" t="n">
-        <v>11993.9351379106</v>
+        <v>12219.650761833</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>9638.0866047638</v>
+        <v>9321.09251474917</v>
       </c>
       <c r="C32" t="n">
-        <v>7696.86219487327</v>
+        <v>7650.63443519184</v>
       </c>
       <c r="D32" t="n">
-        <v>6669.24006624889</v>
+        <v>6766.3473436292</v>
       </c>
       <c r="E32" t="n">
-        <v>11579.3110146543</v>
+        <v>10991.5505943065</v>
       </c>
       <c r="F32" t="n">
-        <v>12606.9331432787</v>
+        <v>11875.8376858691</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>5771.97102905512</v>
+        <v>5812.01555008047</v>
       </c>
       <c r="C33" t="n">
-        <v>3775.2613793335</v>
+        <v>4070.01532898021</v>
       </c>
       <c r="D33" t="n">
-        <v>2718.26713897801</v>
+        <v>3147.85611536711</v>
       </c>
       <c r="E33" t="n">
-        <v>7768.68067877673</v>
+        <v>7554.01577118073</v>
       </c>
       <c r="F33" t="n">
-        <v>8825.67491913222</v>
+        <v>8476.17498479383</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>6414.42045626439</v>
+        <v>5817.64555699051</v>
       </c>
       <c r="C34" t="n">
-        <v>4390.21395760253</v>
+        <v>4044.45379943639</v>
       </c>
       <c r="D34" t="n">
-        <v>3318.66376467686</v>
+        <v>3105.78278382737</v>
       </c>
       <c r="E34" t="n">
-        <v>8438.62695492625</v>
+        <v>7590.83731454463</v>
       </c>
       <c r="F34" t="n">
-        <v>9510.17714785191</v>
+        <v>8529.50833015365</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>8375.68441206586</v>
+        <v>8266.65927499656</v>
       </c>
       <c r="C35" t="n">
-        <v>6348.84572098213</v>
+        <v>6488.02023417151</v>
       </c>
       <c r="D35" t="n">
-        <v>5275.90212955717</v>
+        <v>5546.46560098505</v>
       </c>
       <c r="E35" t="n">
-        <v>10402.5231031496</v>
+        <v>10045.2983158216</v>
       </c>
       <c r="F35" t="n">
-        <v>11475.4666945746</v>
+        <v>10986.8529490081</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>7434.44737941287</v>
+        <v>8205.98699112087</v>
       </c>
       <c r="C36" t="n">
-        <v>5401.26647860053</v>
+        <v>6417.40954490212</v>
       </c>
       <c r="D36" t="n">
-        <v>4324.96552414827</v>
+        <v>5470.59383769776</v>
       </c>
       <c r="E36" t="n">
-        <v>9467.6282802252</v>
+        <v>9994.56443733961</v>
       </c>
       <c r="F36" t="n">
-        <v>10543.9292346775</v>
+        <v>10941.380144544</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>8280.66412835394</v>
+        <v>8616.30247589114</v>
       </c>
       <c r="C37" t="n">
-        <v>6229.15258794951</v>
+        <v>6816.14077930858</v>
       </c>
       <c r="D37" t="n">
-        <v>5143.14797905075</v>
+        <v>5863.19274038783</v>
       </c>
       <c r="E37" t="n">
-        <v>10332.1756687584</v>
+        <v>10416.4641724737</v>
       </c>
       <c r="F37" t="n">
-        <v>11418.1802776571</v>
+        <v>11369.4122113944</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
